--- a/biology/Médecine/Entérocolite_nécrosante/Entérocolite_nécrosante.xlsx
+++ b/biology/Médecine/Entérocolite_nécrosante/Entérocolite_nécrosante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
+          <t>Entérocolite_nécrosante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une entérocolite nécrosante (ou entérocolite nécrosante néonatale ou ENN) rassemble ulcérations et nécroses étendues de l'iléon et du côlon chez un nouveau-né, le plus souvent prématuré et de petit poids à la naissance. 
-Une maladie similaire est rencontrée chez les patients neutropéniques atteints d'un cancer[1].
+Une maladie similaire est rencontrée chez les patients neutropéniques atteints d'un cancer.
 Il s'agit d'une urgence médicochirurgicale.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
+          <t>Entérocolite_nécrosante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières descriptions de l'entérocolite ulcéronécrosante (ECUN) sont attribuées au Dr Charles-Michel Billard à Paris en 1825[2] et au Dr Alois Bednar à Vienne en 1850[3],[4].
-Puisque les cas étaient souvent groupés, parmi des enfants hospitalisés, l'hypothèse d'une infection nosocomiale a longtemps été retenue[3],[5].
-Ce sont Kurt Schmidt et Karl Quaiser qui emploient la première fois les termes « enterocolitis ulcerosa necroticans » en 1952 à Graz[6].
-En 1964 est présentée à Paris puis publiée aux États-Unis une revue de cas sur dix années par une équipe new-yorkaise de pédiatres, radiologues et anatomopathologistes rassemblant le tableau radio- et anatomoclinique[7].
-Au cours des années 1970 sont établies des classifications cliniques et des recommandations pour la prise en charge chirurgicale de cette affection[8],[9].
-Malgré de nombreuses descriptions colligées depuis, l'étiologie, la pathogenèse, le diagnostic, le traitement précoce et la prévention restent à l'étude[6],[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières descriptions de l'entérocolite ulcéronécrosante (ECUN) sont attribuées au Dr Charles-Michel Billard à Paris en 1825 et au Dr Alois Bednar à Vienne en 1850,.
+Puisque les cas étaient souvent groupés, parmi des enfants hospitalisés, l'hypothèse d'une infection nosocomiale a longtemps été retenue,.
+Ce sont Kurt Schmidt et Karl Quaiser qui emploient la première fois les termes « enterocolitis ulcerosa necroticans » en 1952 à Graz.
+En 1964 est présentée à Paris puis publiée aux États-Unis une revue de cas sur dix années par une équipe new-yorkaise de pédiatres, radiologues et anatomopathologistes rassemblant le tableau radio- et anatomoclinique.
+Au cours des années 1970 sont établies des classifications cliniques et des recommandations pour la prise en charge chirurgicale de cette affection,.
+Malgré de nombreuses descriptions colligées depuis, l'étiologie, la pathogenèse, le diagnostic, le traitement précoce et la prévention restent à l'étude,.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
+          <t>Entérocolite_nécrosante</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,15 +563,17 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'entérocolite nécrosante néonatale (ENN) n'apparaît en général qu'à la 2e ou 3e semaine de vie extra-utérine ; elle représenterait 8 à 12 % des infections néonatales, chez des enfants dont le poids de naissance est inférieur à 1 500 g[5].
-Parfois l'ENN survient chez des enfants nés à terme ou quasi, ces rares cas représentent 7 à 15 % du total des cas d'entérocolite nécrosante[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'entérocolite nécrosante néonatale (ENN) n'apparaît en général qu'à la 2e ou 3e semaine de vie extra-utérine ; elle représenterait 8 à 12 % des infections néonatales, chez des enfants dont le poids de naissance est inférieur à 1 500 g.
+Parfois l'ENN survient chez des enfants nés à terme ou quasi, ces rares cas représentent 7 à 15 % du total des cas d'entérocolite nécrosante.
 L'âge de survenue de l'ENN est inversement proportionnel au terme de la grossesse : plus le nouveau-né est prématuré, plus l'entérocolite nécrosante peut survenir tard dans sa vie extra-utérine.
-Le pic de prévalence est observé pour des enfants nés vers 29 ou 31 semaines d'aménorrhée[10].
+Le pic de prévalence est observé pour des enfants nés vers 29 ou 31 semaines d'aménorrhée.
 Sur les périodes 1999-2001, 2003-2007 mais aussi 2005-2006, et ce parmi des cohortes de plusieurs milliers d'enfants de bas poids à la naissance, la prévalence est estimée dans les centres pédiatriques américains de 7 à 11 %.
-Elle serait plus basse en Europe et au Canada : une étude suédoise l'estime à 5,8 % parmi une cohorte de 638 nouveau-nés, en Suisse elle ne s'élèverait pas à plus de 3-4 %[10].
-Les facteurs de risque d'entérocolite nécrosante sont[5] :
+Elle serait plus basse en Europe et au Canada : une étude suédoise l'estime à 5,8 % parmi une cohorte de 638 nouveau-nés, en Suisse elle ne s'élèverait pas à plus de 3-4 %.
+Les facteurs de risque d'entérocolite nécrosante sont :
 la prématurité ;
 l'ischémie intestinale ;
 l'asphyxie néonatale ;
@@ -566,8 +582,8 @@
 la mise en place d'un cathéter ombilical ;
 la pullulation bactérienne.
 L'entérocolite nécrosante est relativement plus fréquente chez les enfants noirs, également répartie parmi filles et garçons.
-Dans sa forme classique l'ENN atteint ainsi des prématurés de petit poids de naissance, à leur 3e-4e semaine de vie extra-utérine, souvent groupés, suggérant une cause infectieuse[6]. Elle concerne 2 à 5 % des bébés admis en service de réanimation néonatale et soins intensifs[10].
-Le taux de létalité s'élève de 20-40 %, pour les cas sensibles au traitement, à 100 % dans les cas échappant aux soins[10].
+Dans sa forme classique l'ENN atteint ainsi des prématurés de petit poids de naissance, à leur 3e-4e semaine de vie extra-utérine, souvent groupés, suggérant une cause infectieuse. Elle concerne 2 à 5 % des bébés admis en service de réanimation néonatale et soins intensifs.
+Le taux de létalité s'élève de 20-40 %, pour les cas sensibles au traitement, à 100 % dans les cas échappant aux soins.
 </t>
         </is>
       </c>
@@ -578,7 +594,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
+          <t>Entérocolite_nécrosante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,12 +612,14 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mal expliquée, l'entérocolite est probablement multifactorielle.
-Quels que soient les facteurs déclenchants, tout tend à l'inflammation des tissus de l'appareil digestif, à la libération de médiateurs de l'inflammation et à la régulation négative des facteurs de croissance cellulaire, concourant ainsi aux lésions intestinales[6].
-L'entérocolite ulcéronécrosante du nouveau-né a parfois été reliée à de bas scores d'Apgar, des cathétérisations ombilicales, des épisodes d'apnée, le syndrome de détresse respiratoire aiguë, une anémie, une hypothermie, des événements hypoxo-ischémiants (asphyxie périnatale, persistance du canal artériel, détresse respiratoire, retard de croissance intra-utérin, exsanguino-transfusion)[11], des transfusions sanguines, l'hypotension et l'utilisation de médicaments vasoactifs tels que l'indométacine et autres vasopresseurs, sans que les études de cohorte du XXIe siècle ne puissent appuyer ces hypothèses passées[10].
-Ce sont les interactions entre le substrat lacté, les microbes et le système immunitaire immature de l'hôte qui sont explorées[10] :
+Quels que soient les facteurs déclenchants, tout tend à l'inflammation des tissus de l'appareil digestif, à la libération de médiateurs de l'inflammation et à la régulation négative des facteurs de croissance cellulaire, concourant ainsi aux lésions intestinales.
+L'entérocolite ulcéronécrosante du nouveau-né a parfois été reliée à de bas scores d'Apgar, des cathétérisations ombilicales, des épisodes d'apnée, le syndrome de détresse respiratoire aiguë, une anémie, une hypothermie, des événements hypoxo-ischémiants (asphyxie périnatale, persistance du canal artériel, détresse respiratoire, retard de croissance intra-utérin, exsanguino-transfusion), des transfusions sanguines, l'hypotension et l'utilisation de médicaments vasoactifs tels que l'indométacine et autres vasopresseurs, sans que les études de cohorte du XXIe siècle ne puissent appuyer ces hypothèses passées.
+Ce sont les interactions entre le substrat lacté, les microbes et le système immunitaire immature de l'hôte qui sont explorées :
 alimentation du nouveau-né :
 alimentation agressive,
 formule de la nutrition,
@@ -625,7 +643,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
+          <t>Entérocolite_nécrosante</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -645,8 +663,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Signes fonctionnels et cliniques
-Le tableau clinique d'une entérocolite nécrosante du nouveau-né (ENN) peut s'installer progressivement ou s'imposer de façon fulminante, choquant l'enfant en quelques heures[10] :
+          <t>Signes fonctionnels et cliniques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tableau clinique d'une entérocolite nécrosante du nouveau-né (ENN) peut s'installer progressivement ou s'imposer de façon fulminante, choquant l'enfant en quelques heures :
 intolérance alimentaire : résidus gastriques préprandiaux, vomissements, distension abdominale ;
 et sang dans les selles (hématochézie).
 Moins fréquemment l'estomac est aussi concerné : cela peut se signaler par des vomissements sanglants, des résidus sanglants.
@@ -656,14 +679,7 @@
 Chez un garçon, la cyanose ou l'érythème peut s'étendre au scrotum, en cas de hernie.
 Sensibilité et défense de l'abdomen ne sont manifestes que tardivement dans l'ENN de grands prématurés : le diagnostic nécessite une connaissance détaillée de l'état clinique de base du petit patient.
 Des résidus gastriques bilieux peuvent être normaux avant que la motilité intestinale mûrisse à la suite d'une nutrition entérale progressive.
-Les signes généraux, en cas d'ENN, rassemblent potentiellement léthargie, hypotension, hypoperfusion, accès plus nombreux d'apnées-brachychardie, détérioration de la fonction respiratoire, labilité de la température corporelle, tachycardie, hyperglycémie, ou hypoglycémie[10].
-Examens complémentaires
-Analyses de sang
-Les analyses du ionogramme sanguin et de l'hémogramme montrent une anémie, une immaturité de la lignée neutrophile — un « décalage à gauche » des neutrophiles —, une thrombocytopénie, une acidose métabolique et une hyponatrémie[10].
-Imagerie médicale
-Les radiographies de l'abdomen sans préparation montrent les signes d'iléus, de distension intestinale, de pneumatose intestinale et, ou portale — avec des clartés gazeuses soulignant les silhouettes du foie et, ou de la rate[10] — voire un pneumopéritoine[11].
-Les critères radiocliniques de gravité suivants ont été établis au cours des années 1970 :
-Alors que l'échographie n'est pas utilisée pour le suivi de routine, elle permet cependant d'évaluer l'épanchement péritonéal, l'épaisseur des parois intestinales et leur perfusion[12].
+Les signes généraux, en cas d'ENN, rassemblent potentiellement léthargie, hypotension, hypoperfusion, accès plus nombreux d'apnées-brachychardie, détérioration de la fonction respiratoire, labilité de la température corporelle, tachycardie, hyperglycémie, ou hypoglycémie.
 </t>
         </is>
       </c>
@@ -674,7 +690,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
+          <t>Entérocolite_nécrosante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -689,10 +705,96 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Analyses de sang</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les analyses du ionogramme sanguin et de l'hémogramme montrent une anémie, une immaturité de la lignée neutrophile — un « décalage à gauche » des neutrophiles —, une thrombocytopénie, une acidose métabolique et une hyponatrémie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Entérocolite_nécrosante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocolite_n%C3%A9crosante</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Imagerie médicale</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les radiographies de l'abdomen sans préparation montrent les signes d'iléus, de distension intestinale, de pneumatose intestinale et, ou portale — avec des clartés gazeuses soulignant les silhouettes du foie et, ou de la rate — voire un pneumopéritoine.
+Les critères radiocliniques de gravité suivants ont été établis au cours des années 1970 :
+Alors que l'échographie n'est pas utilisée pour le suivi de routine, elle permet cependant d'évaluer l'épanchement péritonéal, l'épaisseur des parois intestinales et leur perfusion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Entérocolite_nécrosante</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocolite_n%C3%A9crosante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Prise en charge</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas d'entérocolite nécrosante suspectée (anses dilatées et figées et parois épaissies), le nourrisson est mis à jeun en attendant la confirmation de la maladie. Cette dernière est traitée par une antibiothérapie à base de ceftazidime, vancomycine voire métronidazole[réf. souhaitée] ;
 Dans le cas d'entérocolites nécrosantes compliquées (d'une péritonite ou d'une pneumopéritoine), on recourt à une chirurgie où la nécessité de réséquer la valvule iléocécale se présente souvent, avec troubles du transit en postopératoire. Ce cas de figure est malheureusement retrouvé dans 30-40 %[réf. souhaitée].
@@ -700,61 +802,65 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocolite_n%C3%A9crosante</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Entérocolite_nécrosante</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocolite_n%C3%A9crosante</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Évolution et complications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Ent%C3%A9rocolite_n%C3%A9crosante</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocolite_n%C3%A9crosante</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Entérocolite_nécrosante</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ent%C3%A9rocolite_n%C3%A9crosante</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une bonne hygiène, en particulier des mains, reste indispensable[13].
-L'utilisation de probiotiques semble intéressant chez le grand prématuré[14].
-La lactoferrine en supplémentation s'avère décevant[15], ainsi que l'emploi d'immunoglobulines contre le staphylocoque[16].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une bonne hygiène, en particulier des mains, reste indispensable.
+L'utilisation de probiotiques semble intéressant chez le grand prématuré.
+La lactoferrine en supplémentation s'avère décevant, ainsi que l'emploi d'immunoglobulines contre le staphylocoque.
 </t>
         </is>
       </c>
